--- a/biology/Zoologie/Cretadromus_liaoningensis/Cretadromus_liaoningensis.xlsx
+++ b/biology/Zoologie/Cretadromus_liaoningensis/Cretadromus_liaoningensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cretadromus
-Cretadromus liaoningensis, unique représentant du genre Cretadromus, est une espèce fossile d'araignées aranéomorphes de la famille des Philodromidae[1].
+Cretadromus liaoningensis, unique représentant du genre Cretadromus, est une espèce fossile d'araignées aranéomorphes de la famille des Philodromidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été découverte dans la formation de Jehol au Liaoning en Chine. Elle date du Crétacé inférieur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été découverte dans la formation de Jehol au Liaoning en Chine. Elle date du Crétacé inférieur.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de liaoning et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le Liaoning.
 </t>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cheng, Shen &amp; Gao, 2009 : A new fossil spider of the Philodromidae from the Yixian Formation of western Liaoning Province, China (Arachnida, Araneae). Acta Arachnologica Sinica, vol. 18, p. 23–27 (en).</t>
         </is>
